--- a/pickle/rolling_corr_excel_target_index_MSCI World_simulation_term_type_2_window_size_27.xlsx
+++ b/pickle/rolling_corr_excel_target_index_MSCI World_simulation_term_type_2_window_size_27.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
   <si>
     <t>MSCI World_BBA-10Y Spread</t>
   </si>
@@ -35,24 +35,6 @@
     <t>MSCI World_CNY/USD</t>
   </si>
   <si>
-    <t>MSCI World_CPB 선진국 산업생산</t>
-  </si>
-  <si>
-    <t>MSCI World_CPB 선진국 수출</t>
-  </si>
-  <si>
-    <t>MSCI World_CPB 세계교역</t>
-  </si>
-  <si>
-    <t>MSCI World_CPB 세계생산</t>
-  </si>
-  <si>
-    <t>MSCI World_CPB 이머징 산업생산</t>
-  </si>
-  <si>
-    <t>MSCI World_CPB 이머징 수출</t>
-  </si>
-  <si>
     <t>MSCI World_CPI 주거비</t>
   </si>
   <si>
@@ -203,18 +185,9 @@
     <t>MSCI World_Nikkei225 P/E</t>
   </si>
   <si>
-    <t>MSCI World_OECD ASIA 5 경기선행지수</t>
-  </si>
-  <si>
-    <t>MSCI World_OECD G7 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI World_OECD 소비자물가</t>
   </si>
   <si>
-    <t>MSCI World_OECD+6NME 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI World_OITP 인덱스</t>
   </si>
   <si>
@@ -374,12 +347,6 @@
     <t>MSCI World_두바이유가</t>
   </si>
   <si>
-    <t>MSCI World_러시아 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>MSCI World_러시아 수출 YoY</t>
-  </si>
-  <si>
     <t>MSCI World_미국 10년 투기적포지션</t>
   </si>
   <si>
@@ -401,18 +368,12 @@
     <t>MSCI World_미국 NAHB 주택시장지수</t>
   </si>
   <si>
-    <t>MSCI World_미국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI World_미국 PD 일평균 국채거래량</t>
   </si>
   <si>
     <t>MSCI World_미국 REER</t>
   </si>
   <si>
-    <t>MSCI World_미국 S&amp;P 케이스쉴러 주택가격</t>
-  </si>
-  <si>
     <t>MSCI World_미국 개인근로소득 YoY</t>
   </si>
   <si>
@@ -515,9 +476,6 @@
     <t>MSCI World_발틱 해운임지수</t>
   </si>
   <si>
-    <t>MSCI World_브라질 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI World_브라질 REER</t>
   </si>
   <si>
@@ -557,12 +515,6 @@
     <t>MSCI World_유럽 M3 YoY</t>
   </si>
   <si>
-    <t>MSCI World_유럽 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>MSCI World_유럽 산업생산(건설 제외) YoY</t>
-  </si>
-  <si>
     <t>MSCI World_유럽 소매판매 YoY</t>
   </si>
   <si>
@@ -584,9 +536,6 @@
     <t>MSCI World_유로존 Core CPI</t>
   </si>
   <si>
-    <t>MSCI World_유로존 Credit Impulse</t>
-  </si>
-  <si>
     <t>MSCI World_유로존 ESI</t>
   </si>
   <si>
@@ -596,9 +545,6 @@
     <t>MSCI World_유로존 소비자신뢰지수</t>
   </si>
   <si>
-    <t>MSCI World_인도 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI World_인도 REER</t>
   </si>
   <si>
@@ -614,15 +560,9 @@
     <t>MSCI World_일본 ESI</t>
   </si>
   <si>
-    <t>MSCI World_일본 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI World_일본 REER</t>
   </si>
   <si>
-    <t>MSCI World_일본 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI World_일본 산업생산 YoY</t>
   </si>
   <si>
@@ -659,9 +599,6 @@
     <t>MSCI World_중국 M1 YoY</t>
   </si>
   <si>
-    <t>MSCI World_중국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI World_중국 PPI</t>
   </si>
   <si>
@@ -699,18 +636,6 @@
   </si>
   <si>
     <t>MSCI World_한국 Core CPI</t>
-  </si>
-  <si>
-    <t>MSCI World_한국 M1 YoY</t>
-  </si>
-  <si>
-    <t>MSCI World_한국 M2 YoY</t>
-  </si>
-  <si>
-    <t>MSCI World_한국 M3 YoY</t>
-  </si>
-  <si>
-    <t>MSCI World_한국 OECD 경기선행지수</t>
   </si>
   <si>
     <t>MSCI World_한국 PPI</t>
@@ -1212,7 +1137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JO4"/>
+  <dimension ref="A1:IP4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1220,7 +1145,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:275">
+    <row r="1" spans="1:250">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1968,954 +1893,804 @@
       <c r="IP1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="IQ1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:250">
+      <c r="A2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="IR1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="II2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:250">
+      <c r="A3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="IS1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="IT1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:275">
-      <c r="A2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="II2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:275">
-      <c r="A3" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3</v>
+      </c>
+      <c r="O3" t="n">
         <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -2927,19 +2702,19 @@
         <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>3</v>
@@ -2948,61 +2723,61 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB3" t="n">
         <v>2</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
       </c>
       <c r="AF3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH3" t="n">
         <v>1</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS3" t="n">
         <v>0</v>
@@ -3011,40 +2786,40 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
         <v>2</v>
       </c>
-      <c r="AX3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>0</v>
-      </c>
       <c r="BE3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BF3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG3" t="n">
         <v>0</v>
@@ -3053,175 +2828,175 @@
         <v>0</v>
       </c>
       <c r="BI3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL3" t="n">
         <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BN3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BP3" t="n">
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BY3" t="n">
         <v>2</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>0</v>
       </c>
       <c r="BZ3" t="n">
         <v>2</v>
       </c>
       <c r="CA3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB3" t="n">
         <v>0</v>
       </c>
       <c r="CC3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CD3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CF3" t="n">
         <v>0</v>
       </c>
       <c r="CG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE3" t="n">
         <v>2</v>
       </c>
-      <c r="CH3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE3" t="n">
-        <v>3</v>
-      </c>
       <c r="DF3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DG3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
       </c>
       <c r="DI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DK3" t="n">
         <v>2</v>
       </c>
-      <c r="DJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK3" t="n">
-        <v>0</v>
-      </c>
       <c r="DL3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DM3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DN3" t="n">
         <v>2</v>
@@ -3230,88 +3005,88 @@
         <v>2</v>
       </c>
       <c r="DP3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ3" t="n">
         <v>2</v>
       </c>
-      <c r="DR3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DU3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ3" t="n">
-        <v>0</v>
-      </c>
       <c r="EA3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EB3" t="n">
         <v>0</v>
       </c>
       <c r="EC3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="ED3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EF3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EG3" t="n">
         <v>0</v>
       </c>
       <c r="EH3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EI3" t="n">
         <v>0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EK3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EL3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EM3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EN3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="EO3" t="n">
         <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER3" t="n">
         <v>0</v>
@@ -3323,70 +3098,70 @@
         <v>0</v>
       </c>
       <c r="EU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL3" t="n">
         <v>2</v>
       </c>
-      <c r="EV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EX3" t="n">
+      <c r="FM3" t="n">
         <v>2</v>
       </c>
-      <c r="EY3" t="n">
-        <v>2</v>
-      </c>
-      <c r="EZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FA3" t="n">
-        <v>2</v>
-      </c>
-      <c r="FB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK3" t="n">
-        <v>2</v>
-      </c>
-      <c r="FL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM3" t="n">
-        <v>3</v>
-      </c>
       <c r="FN3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FO3" t="n">
         <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FQ3" t="n">
         <v>2</v>
@@ -3398,1131 +3173,981 @@
         <v>0</v>
       </c>
       <c r="FT3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FU3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FV3" t="n">
         <v>3</v>
       </c>
       <c r="FW3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="FX3" t="n">
         <v>0</v>
       </c>
       <c r="FY3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GC3" t="n">
         <v>2</v>
       </c>
-      <c r="GB3" t="n">
+      <c r="GD3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="II3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IL3" t="n">
         <v>2</v>
       </c>
-      <c r="GC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ3" t="n">
+      <c r="IM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN3" t="n">
         <v>2</v>
       </c>
-      <c r="GK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="II3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>1</v>
-      </c>
       <c r="IO3" t="n">
         <v>0</v>
       </c>
       <c r="IP3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>2</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>2</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>2</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:275">
+    <row r="4" spans="1:250">
       <c r="A4" s="1" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9409013955031688</v>
+        <v>-0.9515689195361652</v>
       </c>
       <c r="C4" t="n">
-        <v>0.946970508978951</v>
+        <v>0.9515494481750878</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9241409791413663</v>
+        <v>0.7929550002712313</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8950064030078592</v>
+        <v>0.8432182784196546</v>
       </c>
       <c r="F4" t="n">
-        <v>0.655254045964152</v>
+        <v>0.4899640951899124</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4318323878628327</v>
+        <v>-0.5777227261322535</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9590896495622064</v>
+        <v>0.9594276826073223</v>
       </c>
       <c r="I4" t="n">
-        <v>0.954555487300514</v>
+        <v>0.9236936123620406</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9521405081463038</v>
+        <v>0.4771077618801335</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9757138375744586</v>
+        <v>0.2724672915917679</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9702330967103853</v>
+        <v>-0.3897900819443866</v>
       </c>
       <c r="M4" t="n">
-        <v>0.886402301217261</v>
+        <v>0.9630179463940607</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9729828095217247</v>
+        <v>-0.7864503042864197</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9319126591795469</v>
+        <v>0.9590275485095633</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5595221160778864</v>
+        <v>0.9663611371693543</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5710350770855958</v>
+        <v>0.9242586185245389</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.8087923709128176</v>
+        <v>0.5283566957180899</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9651023297387952</v>
+        <v>0.7162404354663408</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.8398523632872045</v>
+        <v>-0.6107941228036524</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9080967931125179</v>
+        <v>0.860832695417336</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8626349726577976</v>
+        <v>0.5341182872165433</v>
       </c>
       <c r="W4" t="n">
-        <v>0.9123372948603943</v>
+        <v>0.9046449627382944</v>
       </c>
       <c r="X4" t="n">
-        <v>0.5893917181763765</v>
+        <v>0.8227225477435476</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.6956838553360124</v>
+        <v>-0.3892156374744638</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.687293965161902</v>
+        <v>0.8985034483697678</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.8935015639277423</v>
+        <v>0.6944958811693831</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.7024571370584921</v>
+        <v>0.879529576859427</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.9323672090646907</v>
+        <v>0.5506934771048719</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.8681117124106362</v>
+        <v>0.9306733474764215</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.08247190887663726</v>
+        <v>0.7601740196555312</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.9085956453946223</v>
+        <v>0.8145967947829333</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.7155215804606325</v>
+        <v>0.5358122282896068</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.9257066467090967</v>
+        <v>0.3691589475048011</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.6252119643593832</v>
+        <v>0.9445458795711527</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.9445354363575189</v>
+        <v>-0.1671132163868894</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.7649409864419828</v>
+        <v>0.9083470213556674</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.6916352179526553</v>
+        <v>-0.1564335103118945</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.7405322775425653</v>
+        <v>-0.8733302737367677</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0.1138912616011366</v>
+        <v>-0.7132750864017484</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.9670357128104222</v>
+        <v>0.9547259364427243</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.4268019595889309</v>
+        <v>-0.05434120915200683</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.9324685183589355</v>
+        <v>-0.7548379702255702</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.3903999834181138</v>
+        <v>-0.4986374991945897</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.7024320358604884</v>
+        <v>0.9787368208137063</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.7682095052959276</v>
+        <v>0.9991587020280297</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.9643639179678606</v>
+        <v>0.9965451274448317</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.3074045519188947</v>
+        <v>0.9718291645921305</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.779202004659339</v>
+        <v>0.9636778708121071</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.7309432942658991</v>
+        <v>0.9788548163964935</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.9891671178333256</v>
+        <v>1</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.9997216776109025</v>
+        <v>0.9938260664087359</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.9960533386357406</v>
+        <v>0.9823342098214384</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.9796895390824677</v>
+        <v>0.9610054784943617</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.988447183162542</v>
+        <v>0.8924949992900202</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.9903149394210453</v>
+        <v>0.8301359983114276</v>
       </c>
       <c r="BE4" t="n">
-        <v>1</v>
+        <v>0.3432144365962955</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.9937960936416904</v>
+        <v>0.8707266212263808</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.9889262565160001</v>
+        <v>-0.3007582319958689</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.9458545480010208</v>
+        <v>0.797879637994262</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.9059256372973817</v>
+        <v>-0.2529160144129783</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.8209814790365578</v>
+        <v>0.8810275849642014</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.40751845741745</v>
+        <v>0.9087356503301263</v>
       </c>
       <c r="BL4" t="n">
-        <v>-0.2375076478923077</v>
+        <v>-0.2909865396224451</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.9094385230383</v>
+        <v>-0.8301972387150997</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.8933947679602502</v>
+        <v>0.994733893593951</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.9757008375738707</v>
+        <v>0.880612730329187</v>
       </c>
       <c r="BP4" t="n">
-        <v>-0.4035237900546727</v>
+        <v>0.9835918397720835</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.8537652905716107</v>
+        <v>0.3691670110695759</v>
       </c>
       <c r="BR4" t="n">
-        <v>-0.1532810559577795</v>
+        <v>0.9634509602559952</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.8820119020859876</v>
+        <v>0.8934916577849119</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.8588556062868754</v>
+        <v>0.5696316316442296</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.5800667945686605</v>
+        <v>0.9225178723464951</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.4878939711302687</v>
+        <v>0.9188507433814502</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.997177787390822</v>
+        <v>0.9352407434610328</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.9015275109900543</v>
+        <v>-0.6914216027926664</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.9891521412629782</v>
+        <v>-0.4636449376457496</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.7820120064551221</v>
+        <v>0.8417132241687335</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.9774566208989028</v>
+        <v>0.9620713034701969</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.9220701905805434</v>
+        <v>0.899457190834824</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.6976210923654884</v>
+        <v>0.8855574999997136</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.9163199598096614</v>
+        <v>0.4824070506760884</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.8734497433539903</v>
+        <v>0.5377982201360613</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.8561410198259456</v>
+        <v>0.8150324021144414</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.8968605750552548</v>
+        <v>-0.2765886721002538</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.5560776224336021</v>
+        <v>0.7859409296656423</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.6733646006636984</v>
+        <v>0.4328926953211016</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.9436729968130645</v>
+        <v>-0.451941263854463</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.8676580039106677</v>
+        <v>0.5667181923688388</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.8613742641504448</v>
+        <v>-0.2406591031855432</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.4977627471302185</v>
+        <v>0.5636139121313318</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.7167891069930196</v>
+        <v>0.9622526708502909</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.7647710400878253</v>
+        <v>-0.451312241961099</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.7665559990919195</v>
+        <v>0.9379780311437533</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.8356716174695159</v>
+        <v>0.9572476527221188</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.6245015054668918</v>
+        <v>-0.5008696662813852</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.06379026081375787</v>
+        <v>0.9473819443538029</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.5752813356482015</v>
+        <v>0.2910214811834066</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.07026779490623385</v>
+        <v>0.9046593867055619</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.6856981485018487</v>
+        <v>0.8850724150320523</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.9750359654932949</v>
+        <v>0.8661629177811694</v>
       </c>
       <c r="CX4" t="n">
-        <v>-0.1871945565594014</v>
+        <v>0.8865090708195521</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.898130325647957</v>
+        <v>-0.7120533283947967</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.9809947666270356</v>
+        <v>0.7815452556541445</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0.5172168798720398</v>
+        <v>0.8110575183650488</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.9569482769598449</v>
+        <v>0.9514038461846743</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.4889889640520098</v>
+        <v>0.2577857416641111</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.8853421871980788</v>
+        <v>0.6024001658831084</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.9148368819238025</v>
+        <v>0.6891027168551009</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.8914837444617021</v>
+        <v>0.1501182347187427</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.9587788230021149</v>
+        <v>0.8524359694037861</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.6383226822089905</v>
+        <v>-0.3444135304322283</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.7866733124001485</v>
+        <v>0.762647479244969</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.7459160759023068</v>
+        <v>-0.7646693987236504</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.9284342710081397</v>
+        <v>0.3999804579212056</v>
       </c>
       <c r="DL4" t="n">
-        <v>-0.6818279037571009</v>
+        <v>-0.6830715935919682</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.708743086350032</v>
+        <v>-0.9635251594495245</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.7954054101426913</v>
+        <v>0.8011894826579713</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.1672084605287036</v>
+        <v>0.3038541323546695</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.8939731446812573</v>
+        <v>-0.4410122711248782</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.863636119013949</v>
+        <v>0.9622526708502909</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.8435747723699903</v>
+        <v>0.9551863789802572</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.2027864306254648</v>
+        <v>0.9804021842639957</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.7974272201396365</v>
+        <v>0.8209645874122742</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0.8152666538958756</v>
+        <v>0.9145596429162618</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.4925109986610156</v>
+        <v>0.649842987676457</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.3309358936431211</v>
+        <v>0.8046504285613357</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.8418095448268154</v>
+        <v>-0.941795189042929</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.8180364409813908</v>
+        <v>0.9840789363849123</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.9324876767089912</v>
+        <v>0.7674840515722652</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.2434284982371152</v>
+        <v>0.9721826756956093</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0.5836326290733466</v>
+        <v>0.9496012430137486</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.9274173872713658</v>
+        <v>0.6003907117604722</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.9750359654932949</v>
+        <v>-0.7354688730507974</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.9667381195124266</v>
+        <v>-0.03589642517932143</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.9347331475490155</v>
+        <v>-0.1005900015802024</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.7745196983293998</v>
+        <v>0.8928595714189567</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.9301354848733918</v>
+        <v>0.9521449735163393</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.4985367708137834</v>
+        <v>0.7364550520056931</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.9201537804643654</v>
+        <v>0.8612583708804378</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0.9588540792858148</v>
+        <v>0.9422160461129451</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.9933867007689605</v>
+        <v>0.8626546342423153</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.7184752354284836</v>
+        <v>0.8190012792337927</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.965114856763879</v>
+        <v>0.8809822448810776</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.9545750244465211</v>
+        <v>-0.9635050283985229</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.6535456022595124</v>
+        <v>0.9433835902752378</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.7675154064894935</v>
+        <v>0.1143731664355136</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.5743801850203329</v>
+        <v>0.8891194354565148</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.2661073201227946</v>
+        <v>-0.8828287305310887</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.8711545716435296</v>
+        <v>-0.8921727382390967</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.9632401392479955</v>
+        <v>-0.945034818308181</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.3317984438238596</v>
+        <v>0.762277591800689</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.873173229138979</v>
+        <v>0.8171580059579496</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.9385690060609516</v>
+        <v>0.8638629260577257</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.8772182229021507</v>
+        <v>0.4463206441719581</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.8623235936490498</v>
+        <v>0.8071099858735625</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.8964752181746788</v>
+        <v>0.6753728124539804</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.9682565670876854</v>
+        <v>-0.7417768657739255</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.9531699755445662</v>
+        <v>0.2724672915917679</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.197532545935546</v>
+        <v>0.87471801901476</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.7872968727015208</v>
+        <v>0.7407818555902718</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.8721245815544129</v>
+        <v>0.3992258436245886</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0.9223909248657545</v>
+        <v>-0.7000655358549978</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.9307682306619982</v>
+        <v>0.7902923353979442</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.7468512299510472</v>
+        <v>-0.191911231747823</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.7901704594735137</v>
+        <v>-0.1511380817222649</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.8739899113917748</v>
+        <v>-0.5325658320496381</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.9698278053007896</v>
+        <v>0.3175781991480685</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.6707083048392984</v>
+        <v>0.9660472095347974</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.865727108570151</v>
+        <v>0.9068646715884848</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.7899866697524979</v>
+        <v>-0.6435697096760155</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0.6956720827573022</v>
+        <v>-0.883691485723427</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.5710350770855958</v>
+        <v>0.8969365575277503</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.9103141657674764</v>
+        <v>0.4662501732314948</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.6970241466855407</v>
+        <v>-0.3223099677773638</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.4593253055676565</v>
+        <v>0.7893219402433106</v>
       </c>
       <c r="FU4" t="n">
-        <v>-0.4183191503494736</v>
+        <v>0.9660472095347974</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.8334715173976011</v>
+        <v>0.6989823293626468</v>
       </c>
       <c r="FW4" t="n">
-        <v>-0.3323887533372092</v>
+        <v>0.790540453602841</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0.1136344768705424</v>
+        <v>0.8353605762245223</v>
       </c>
       <c r="FY4" t="n">
-        <v>-0.4756404658604673</v>
+        <v>-0.5329426897221797</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.7899511153052338</v>
+        <v>-0.4290740229987606</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.5181211741217407</v>
+        <v>-0.8440226736795098</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.3168677779523446</v>
+        <v>0.6742149893885068</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.9391523831797072</v>
+        <v>0.7053883318516582</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.8476685446365226</v>
+        <v>0.3851881568933118</v>
       </c>
       <c r="GE4" t="n">
-        <v>-0.4476127097541009</v>
+        <v>0.9219776328903151</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0.863083109319255</v>
+        <v>0.942153920683487</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.8965848862152981</v>
+        <v>0.3618653058412998</v>
       </c>
       <c r="GH4" t="n">
-        <v>0.4395914088866229</v>
+        <v>0.9419215212175315</v>
       </c>
       <c r="GI4" t="n">
-        <v>-0.8944664425769331</v>
+        <v>-0.7892154765437768</v>
       </c>
       <c r="GJ4" t="n">
-        <v>0.6329270210404547</v>
+        <v>0</v>
       </c>
       <c r="GK4" t="n">
-        <v>0.7052028442307868</v>
+        <v>-0.1809727922829407</v>
       </c>
       <c r="GL4" t="n">
-        <v>0.9391523831797072</v>
+        <v>0.3971179329934256</v>
       </c>
       <c r="GM4" t="n">
-        <v>0.4663906469260181</v>
+        <v>0.9625639278976589</v>
       </c>
       <c r="GN4" t="n">
-        <v>0.8620349338878183</v>
+        <v>0.8457671369176926</v>
       </c>
       <c r="GO4" t="n">
-        <v>0.5116294925296978</v>
+        <v>0.362370424536009</v>
       </c>
       <c r="GP4" t="n">
-        <v>0.8119299613710261</v>
+        <v>-0.5872889522386663</v>
       </c>
       <c r="GQ4" t="n">
-        <v>-0.783958116008913</v>
+        <v>1.44515032785823e-15</v>
       </c>
       <c r="GR4" t="n">
-        <v>0.1570700603995306</v>
+        <v>1.44515032785823e-15</v>
       </c>
       <c r="GS4" t="n">
-        <v>0.8262993141564419</v>
+        <v>0.7283518673026016</v>
       </c>
       <c r="GT4" t="n">
-        <v>-0.5769422680689102</v>
+        <v>0.6944163880421006</v>
       </c>
       <c r="GU4" t="n">
-        <v>0.7767710477329378</v>
+        <v>0</v>
       </c>
       <c r="GV4" t="n">
-        <v>0.8052365712166442</v>
+        <v>0.3537227585724237</v>
       </c>
       <c r="GW4" t="n">
-        <v>0.7587803119200885</v>
+        <v>0.3303452104820077</v>
       </c>
       <c r="GX4" t="n">
-        <v>0.4799669249995628</v>
+        <v>0.4916569717169896</v>
       </c>
       <c r="GY4" t="n">
-        <v>0.9153695600643263</v>
+        <v>0.6060313326413217</v>
       </c>
       <c r="GZ4" t="n">
-        <v>0.9049795363387018</v>
+        <v>-0.5392216556905458</v>
       </c>
       <c r="HA4" t="n">
-        <v>0.3686052195497734</v>
+        <v>0.7780042410973368</v>
       </c>
       <c r="HB4" t="n">
-        <v>0.8704708026614407</v>
+        <v>0.6222511706836483</v>
       </c>
       <c r="HC4" t="n">
-        <v>-0.7922981954618293</v>
+        <v>-0.4007868588724405</v>
       </c>
       <c r="HD4" t="n">
-        <v>0</v>
+        <v>-0.7870733539668378</v>
       </c>
       <c r="HE4" t="n">
-        <v>-0.2650683755778034</v>
+        <v>0.430053003914283</v>
       </c>
       <c r="HF4" t="n">
-        <v>0.356572183809984</v>
+        <v>-0.4776312389365733</v>
       </c>
       <c r="HG4" t="n">
-        <v>0.9551097287095883</v>
+        <v>0.5771887789064093</v>
       </c>
       <c r="HH4" t="n">
-        <v>-0.7933224297518309</v>
+        <v>0.9726499387595111</v>
       </c>
       <c r="HI4" t="n">
-        <v>0.9239257333983117</v>
+        <v>-0.849139623460913</v>
       </c>
       <c r="HJ4" t="n">
-        <v>-0.7401205944158263</v>
+        <v>0.2327943549112368</v>
       </c>
       <c r="HK4" t="n">
-        <v>-0.7185571001945248</v>
+        <v>0.6764366589795743</v>
       </c>
       <c r="HL4" t="n">
-        <v>1.725650616200385e-15</v>
+        <v>0.7318130832795231</v>
       </c>
       <c r="HM4" t="n">
-        <v>1.725650616200385e-15</v>
+        <v>0.8404677649803284</v>
       </c>
       <c r="HN4" t="n">
-        <v>0.7860834099720253</v>
+        <v>-0.2154515682847724</v>
       </c>
       <c r="HO4" t="n">
-        <v>0.7286940289004825</v>
+        <v>-0.1984892776398106</v>
       </c>
       <c r="HP4" t="n">
-        <v>0</v>
+        <v>-0.4844405103864294</v>
       </c>
       <c r="HQ4" t="n">
-        <v>0.1570037412237255</v>
+        <v>-0.1102320164268278</v>
       </c>
       <c r="HR4" t="n">
-        <v>0.2985133995214651</v>
+        <v>-0.7059625375722133</v>
       </c>
       <c r="HS4" t="n">
-        <v>0.5256915130510674</v>
+        <v>0.9517305474365221</v>
       </c>
       <c r="HT4" t="n">
-        <v>0.7793915323127902</v>
+        <v>-0.3285270822809291</v>
       </c>
       <c r="HU4" t="n">
-        <v>-0.5848731476954168</v>
+        <v>0.6094189089300585</v>
       </c>
       <c r="HV4" t="n">
-        <v>-0.9191918330445773</v>
+        <v>0.4707982713547658</v>
       </c>
       <c r="HW4" t="n">
-        <v>-0.9181810328973105</v>
+        <v>0.7437583252008187</v>
       </c>
       <c r="HX4" t="n">
-        <v>-0.94433691412972</v>
+        <v>0.661975138625428</v>
       </c>
       <c r="HY4" t="n">
-        <v>0.2977627388122173</v>
+        <v>0.5609419041185459</v>
       </c>
       <c r="HZ4" t="n">
-        <v>0.8982540767804266</v>
+        <v>-0.4044027313917028</v>
       </c>
       <c r="IA4" t="n">
-        <v>0.6897765276126101</v>
+        <v>-0.5455751404328048</v>
       </c>
       <c r="IB4" t="n">
-        <v>-0.4904583323170051</v>
+        <v>-0.2307554793476796</v>
       </c>
       <c r="IC4" t="n">
-        <v>-0.6515539095437037</v>
+        <v>-0.6014990553834241</v>
       </c>
       <c r="ID4" t="n">
-        <v>0.5133117148636576</v>
+        <v>-0.876990284493064</v>
       </c>
       <c r="IE4" t="n">
-        <v>-0.07421108614877547</v>
+        <v>0.7767126382635394</v>
       </c>
       <c r="IF4" t="n">
-        <v>0.6013444362298326</v>
+        <v>-0.09781928779371993</v>
       </c>
       <c r="IG4" t="n">
-        <v>0.976371372720695</v>
+        <v>-0.7867716997540044</v>
       </c>
       <c r="IH4" t="n">
-        <v>-0.7803694233281441</v>
+        <v>-0.6669701069135823</v>
       </c>
       <c r="II4" t="n">
-        <v>0.4550576831801592</v>
+        <v>0.7767126382635394</v>
       </c>
       <c r="IJ4" t="n">
-        <v>-0.452070343883562</v>
+        <v>0.7685470299515527</v>
       </c>
       <c r="IK4" t="n">
-        <v>0.1850798887110313</v>
+        <v>-0.3126931105278649</v>
       </c>
       <c r="IL4" t="n">
-        <v>0.8215825594883117</v>
+        <v>0.3227834986390472</v>
       </c>
       <c r="IM4" t="n">
-        <v>-0.1550127195288175</v>
+        <v>-0.4859854629927519</v>
       </c>
       <c r="IN4" t="n">
-        <v>0.06465252542169167</v>
+        <v>-0.7363062927512531</v>
       </c>
       <c r="IO4" t="n">
-        <v>-0.3809402660448594</v>
+        <v>0.9360003442673357</v>
       </c>
       <c r="IP4" t="n">
-        <v>-0.1427848187486059</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>-0.8005599347241149</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>0.9643689440519422</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>-0.4950034180297065</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>0.6980261948720328</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>0.6062163218072006</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>0.8285828629103555</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>0.8115963429628766</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>0.8107111472483259</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>-0.3172709827838858</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>-0.6016537314688318</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>-0.1416506500981761</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>-0.402236063766619</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>-0.7857906545431499</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>0.7956754346285472</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>0.1836620786482902</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>-0.8601518220590566</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>-0.5328174267259503</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>0.7956754346285472</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>0.8072020221540064</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>-0.4415042713993094</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>0.3553392686723789</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>0.2906692397258409</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>-0.5795945248368506</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>0.9749518165095952</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>0.9246328033417119</v>
+        <v>0.8730330154675907</v>
       </c>
     </row>
   </sheetData>
